--- a/dups.xlsx
+++ b/dups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB14886-D322-1741-8377-FEA14B0A9CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFFD947-4BF2-7942-A145-3317E7214DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" xr2:uid="{8E260A3C-2734-2347-A412-BA72783D628D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{8E260A3C-2734-2347-A412-BA72783D628D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Railroad_Cumulative Length_CZ</t>
   </si>
@@ -47,33 +47,12 @@
     <t>Railroad_Cumulative Length_CN</t>
   </si>
   <si>
-    <t>Crop harvester_Total Number_YE</t>
-  </si>
-  <si>
     <t>Crop harvester_Total Number_CZ</t>
   </si>
   <si>
-    <t>Crop harvester_Total Number_VN</t>
-  </si>
-  <si>
-    <t>Crop harvester_Total Number_CN</t>
-  </si>
-  <si>
     <t>Copper Refining_Annual production_CZ</t>
   </si>
   <si>
-    <t>Cellphones_Total Number_YE</t>
-  </si>
-  <si>
-    <t>Cellphones_Total Number_CZ</t>
-  </si>
-  <si>
-    <t>Cellphones_Total Number_VN</t>
-  </si>
-  <si>
-    <t>Cellphones_Total Number_CN</t>
-  </si>
-  <si>
     <t>Silver_Annual Production_KR</t>
   </si>
   <si>
@@ -86,18 +65,12 @@
     <t>Zinc_Annual Production_KR</t>
   </si>
   <si>
-    <t>Telephones_Total Number_YE</t>
-  </si>
-  <si>
     <t>Telephones_Total Number_CZ</t>
   </si>
   <si>
     <t>Telephones_Total Number_VN</t>
   </si>
   <si>
-    <t>Telephones_Total Number_CN</t>
-  </si>
-  <si>
     <t>Postal Traffic_Total Number_CZ</t>
   </si>
   <si>
@@ -107,30 +80,18 @@
     <t>Postal Traffic_Total Number_CN</t>
   </si>
   <si>
-    <t>Passenger Cars_Total Number_YE</t>
-  </si>
-  <si>
     <t>Passenger Cars_Total Number_CZ</t>
   </si>
   <si>
     <t>Passenger Cars_Total Number_VN</t>
   </si>
   <si>
-    <t>Passenger Cars_Total Number_CN</t>
-  </si>
-  <si>
-    <t>Television_Total Number_YE</t>
-  </si>
-  <si>
     <t>Television_Total Number_CZ</t>
   </si>
   <si>
     <t>Television_Total Number_VN</t>
   </si>
   <si>
-    <t>Television_Total Number_CN</t>
-  </si>
-  <si>
     <t>Salt production_Annual production_CZ</t>
   </si>
   <si>
@@ -161,30 +122,15 @@
     <t>Potash Fertilizer_Annual Production_Tonnes_SD</t>
   </si>
   <si>
-    <t>Iron ore_Annual production_CZ</t>
-  </si>
-  <si>
     <t>Iron ore_Annual production_DE</t>
   </si>
   <si>
-    <t>Radio_Total Number_YE</t>
-  </si>
-  <si>
     <t>Radio_Total Number_CZ</t>
   </si>
   <si>
     <t>Radio_Total Number_VN</t>
   </si>
   <si>
-    <t>Radio_Total Number_CN</t>
-  </si>
-  <si>
-    <t>Telegraph Traffic_Total Number_CZ</t>
-  </si>
-  <si>
-    <t>Telegraph Traffic_Total Number_VN</t>
-  </si>
-  <si>
     <t>Telegraph Traffic_Total Number_CN</t>
   </si>
   <si>
@@ -192,9 +138,6 @@
   </si>
   <si>
     <t>Raw steel production_Annual production_DE</t>
-  </si>
-  <si>
-    <t>Cellphones</t>
   </si>
   <si>
     <t>Copper Refining</t>
@@ -606,350 +549,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4961FC5E-ACB9-9E44-8385-66227817394A}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A54">
-    <sortCondition ref="A1:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
